--- a/biology/Zoologie/Anthozoa/Anthozoa.xlsx
+++ b/biology/Zoologie/Anthozoa/Anthozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anthozoaires, ou l'ordre Anthozoa, anciennement Coralliaires ou Actinozoaires, sont une classe de cnidaires.
-Elle comprend deux lignées monophylétiques : les Octocorallia et les Hexacorallia[2].
+Elle comprend deux lignées monophylétiques : les Octocorallia et les Hexacorallia.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur nom provient du grec et signifie « animaux-fleurs », faisant allusion à la symétrie radiale de leurs polypes et au fait qu'ils vivent fixés à l'âge adulte.
 </t>
@@ -543,11 +557,13 @@
           <t>Caractéristiques scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tous les membres de cette classe sont exclusivement polypoïdes (adultes à l'état de polype) ; ils peuvent être soit clonaux (corail), soit coloniaux (certains zoanthides), soit solitaires (anémones, cérianthes). De même, leur corps peut être soutenu par un squelette protéinique ou minéral, soit sans squelette (mou)[2].
-Trois caractéristiques apomorphes seraient à retenir : l'actinopharynx, le siphonoglyphe, et les mésentères. Ces caractéristiques se retrouvent chez tous les anthozoaires sauf un seul, le sibopathe[2].
-Bien qu'une étude phylogénique de 1995 ait semblé démontrer une paraphylie des anthozoaires en accord avec la monophylie de la classe des Medusozoa[2], d'autres études (1996, 1997, 1999, 2002) soutiennent la monophylie des anthozoaires.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les membres de cette classe sont exclusivement polypoïdes (adultes à l'état de polype) ; ils peuvent être soit clonaux (corail), soit coloniaux (certains zoanthides), soit solitaires (anémones, cérianthes). De même, leur corps peut être soutenu par un squelette protéinique ou minéral, soit sans squelette (mou).
+Trois caractéristiques apomorphes seraient à retenir : l'actinopharynx, le siphonoglyphe, et les mésentères. Ces caractéristiques se retrouvent chez tous les anthozoaires sauf un seul, le sibopathe.
+Bien qu'une étude phylogénique de 1995 ait semblé démontrer une paraphylie des anthozoaires en accord avec la monophylie de la classe des Medusozoa, d'autres études (1996, 1997, 1999, 2002) soutiennent la monophylie des anthozoaires.
 </t>
         </is>
       </c>
@@ -576,11 +592,12 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Suivant la nature du corail, mou ou dur, l'anatomie de l'animal et de sa colonie ne sera pas tout à fait la même.
-Anatomie des coraux mous
-Anatomie des coraux durs</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suivant la nature du corail, mou ou dur, l'anatomie de l'animal et de sa colonie ne sera pas tout à fait la même.
+</t>
         </is>
       </c>
     </row>
@@ -608,9 +625,11 @@
           <t>Âge et ancienneté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En tant que colonies, les grands récifs coralliens semblent être parmi les plus vieux animaux coloniaux vivants du monde[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant que colonies, les grands récifs coralliens semblent être parmi les plus vieux animaux coloniaux vivants du monde,.
 </t>
         </is>
       </c>
@@ -639,7 +658,9 @@
           <t>Liste des sous-classes et ordres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Nemanthus annamensis, une anémone
